--- a/FitCurve/PNP_Data_Yidi_LT1175.xlsx
+++ b/FitCurve/PNP_Data_Yidi_LT1175.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LDR" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">Ve_PRE_RAD</t>
   </si>
   <si>
-    <t xml:space="preserve">Ib_Pre_Rad</t>
+    <t xml:space="preserve">Ib_PRE_RAD</t>
   </si>
   <si>
     <t xml:space="preserve">Ib_2.5krad</t>
@@ -52,7 +52,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -74,12 +74,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,7 +123,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -156,13 +150,13 @@
   </sheetPr>
   <dimension ref="B2:H143"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L9" activeCellId="0" sqref="L9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3449,18 +3443,18 @@
   </sheetPr>
   <dimension ref="B2:H143"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.10697674418605"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.046511627907"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.10697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="9.35348837209302"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.293023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.35348837209302"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
         <v>0</v>
       </c>
